--- a/steamcase/mediares/mediaresalertcase.xlsx
+++ b/steamcase/mediares/mediaresalertcase.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preInterfaceAddOneArticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "奥林匹克大赛2017年12月北京赛区-自动化"
 "subtitle": "奥林匹克大赛2017年12月北京赛区-副标题-自动化"
 "content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;方法&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
@@ -91,6 +87,11 @@
   </si>
   <si>
     <t>testMediaresAlertNor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceAddOneArticle
+tearInterfaceDelOneArticle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +471,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,16 +520,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/mediares/mediaresalertcase.xlsx
+++ b/steamcase/mediares/mediaresalertcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\mediares\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89A4FC6F-D018-402B-83B4-20A8359F5828}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -62,12 +63,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改一个作品视频正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testMediaresAlertNor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceAddOneArticle
+tearInterfaceDelOneArticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"title": "奥林匹克大赛2017年12月北京赛区-自动化"
 "subtitle": "奥林匹克大赛2017年12月北京赛区-副标题-自动化"
 "content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;方法&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
 "cornerMask": "花絮"
 "vendorId": 1
-"baseVisits": "1"
+"baseVisits": 1
 "baseCollects": 1
 "shareTitle": "奥林匹克大赛2017年12月北京赛区-分享标题-自动化"
 "thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180420161204_726874.png"
@@ -78,27 +92,14 @@
 "entryIds": [64]
 "matchId": 20
 "resourceTypeId": 1
-"state": "00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改一个作品视频正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testMediaresAlertNor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preInterfaceAddOneArticle
-tearInterfaceDelOneArticle</t>
+"state": "A"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,16 +521,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
